--- a/Figures/Table_2_v2.xlsx
+++ b/Figures/Table_2_v2.xlsx
@@ -15,7 +15,127 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+  <si>
+    <t>Preceeding decade</t>
+  </si>
+  <si>
+    <t>Main waves</t>
+  </si>
+  <si>
+    <t>Post-pandemic decade I</t>
+  </si>
+  <si>
+    <t>Post-pandemic decade II</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1848-49</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1890-91</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1918-19</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1967-59</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1968-70</t>
+  </si>
+  <si>
+    <t>Preceeding decade</t>
+  </si>
+  <si>
+    <t>42-104</t>
+  </si>
+  <si>
+    <t>2-7</t>
+  </si>
+  <si>
+    <t>120-297</t>
+  </si>
+  <si>
+    <t>29-361</t>
+  </si>
+  <si>
+    <t>17-173</t>
+  </si>
+  <si>
+    <t>Main waves</t>
+  </si>
+  <si>
+    <t>285-459</t>
+  </si>
+  <si>
+    <t>157-574</t>
+  </si>
+  <si>
+    <t>1265-3301</t>
+  </si>
+  <si>
+    <t>53-173</t>
+  </si>
+  <si>
+    <t>96-148</t>
+  </si>
+  <si>
+    <t>Post-pandemic decade I</t>
+  </si>
+  <si>
+    <t>55-193</t>
+  </si>
+  <si>
+    <t>122-533</t>
+  </si>
+  <si>
+    <t>196-734</t>
+  </si>
+  <si>
+    <t>17-154</t>
+  </si>
+  <si>
+    <t>10-135</t>
+  </si>
+  <si>
+    <t>Post-pandemic decade II</t>
+  </si>
+  <si>
+    <t>14-58</t>
+  </si>
+  <si>
+    <t>120-288</t>
+  </si>
+  <si>
+    <t>118-567</t>
+  </si>
+  <si>
+    <t>14-148</t>
+  </si>
+  <si>
+    <t>4-42</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1848-49</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1890-91</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1918-19</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1967-59</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1968-70</t>
+  </si>
   <si>
     <t>Preceeding decade</t>
   </si>
@@ -192,24 +312,24 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="B3" s="0">
         <v>64.666666666666671</v>
@@ -226,7 +346,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="B4" s="0">
         <v>3.7000000000000002</v>
@@ -243,7 +363,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="B5" s="0">
         <v>209.09664764404297</v>
@@ -260,7 +380,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B6" s="0">
         <v>104.23189201354981</v>
@@ -277,7 +397,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="B7" s="0">
         <v>67.731188201904303</v>
@@ -310,104 +430,104 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/Figures/Table_2_v2.xlsx
+++ b/Figures/Table_2_v2.xlsx
@@ -15,7 +15,127 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+  <si>
+    <t>Preceeding decade</t>
+  </si>
+  <si>
+    <t>Main waves</t>
+  </si>
+  <si>
+    <t>Post-pandemic decade I</t>
+  </si>
+  <si>
+    <t>Post-pandemic decade II</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1848-49</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1890-91</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1918-19</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1967-59</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1968-70</t>
+  </si>
+  <si>
+    <t>Preceeding decade</t>
+  </si>
+  <si>
+    <t>42-104</t>
+  </si>
+  <si>
+    <t>2-7</t>
+  </si>
+  <si>
+    <t>120-297</t>
+  </si>
+  <si>
+    <t>29-361</t>
+  </si>
+  <si>
+    <t>17-173</t>
+  </si>
+  <si>
+    <t>Main waves</t>
+  </si>
+  <si>
+    <t>285-459</t>
+  </si>
+  <si>
+    <t>157-574</t>
+  </si>
+  <si>
+    <t>1265-3301</t>
+  </si>
+  <si>
+    <t>53-173</t>
+  </si>
+  <si>
+    <t>96-148</t>
+  </si>
+  <si>
+    <t>Post-pandemic decade I</t>
+  </si>
+  <si>
+    <t>55-193</t>
+  </si>
+  <si>
+    <t>122-533</t>
+  </si>
+  <si>
+    <t>196-734</t>
+  </si>
+  <si>
+    <t>17-154</t>
+  </si>
+  <si>
+    <t>10-135</t>
+  </si>
+  <si>
+    <t>Post-pandemic decade II</t>
+  </si>
+  <si>
+    <t>14-58</t>
+  </si>
+  <si>
+    <t>120-288</t>
+  </si>
+  <si>
+    <t>118-567</t>
+  </si>
+  <si>
+    <t>14-148</t>
+  </si>
+  <si>
+    <t>4-42</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1848-49</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1890-91</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1918-19</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1967-59</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1968-70</t>
+  </si>
   <si>
     <t>Preceeding decade</t>
   </si>
@@ -312,24 +432,24 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="B3" s="0">
         <v>64.666666666666671</v>
@@ -346,7 +466,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="B4" s="0">
         <v>3.7000000000000002</v>
@@ -363,7 +483,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="B5" s="0">
         <v>209.09664764404297</v>
@@ -380,7 +500,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="B6" s="0">
         <v>104.23189201354981</v>
@@ -397,7 +517,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="B7" s="0">
         <v>67.731188201904303</v>
@@ -430,104 +550,104 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>70</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>71</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>73</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
